--- a/data/data_patients.xlsx
+++ b/data/data_patients.xlsx
@@ -13,7 +13,49 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+  <si>
+    <t>RSFA</t>
+  </si>
+  <si>
+    <t>CV19Severity</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Sex</t>
+  </si>
+  <si>
+    <t>Hospital_PCA1_iAll</t>
+  </si>
+  <si>
+    <t>Clinical_PCA1_iAll</t>
+  </si>
+  <si>
+    <t>Clinical_PCA2_iAll</t>
+  </si>
+  <si>
+    <t>Cogment_PCA1_iAll</t>
+  </si>
+  <si>
+    <t>Cogment_PCA2_iAll</t>
+  </si>
+  <si>
+    <t>comorbidity_any</t>
+  </si>
+  <si>
+    <t>comorbidity_cardiovascular</t>
+  </si>
+  <si>
+    <t>comorbidity_diabetes</t>
+  </si>
+  <si>
+    <t>comorbidity_hypertension</t>
+  </si>
+  <si>
+    <t>comorbidity_respiratory</t>
+  </si>
   <si>
     <t>RSFA</t>
   </si>
@@ -75,7 +117,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -84,13 +126,15 @@
       <diagonal/>
     </border>
     <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -105,7 +149,7 @@
   <cols>
     <col min="1" max="1" width="13.42578125" customWidth="true"/>
     <col min="2" max="2" width="14.42578125" customWidth="true"/>
-    <col min="3" max="3" width="4.5703125" customWidth="true"/>
+    <col min="3" max="3" width="14.42578125" customWidth="true"/>
     <col min="4" max="4" width="4.28515625" customWidth="true"/>
     <col min="5" max="5" width="18" customWidth="true"/>
     <col min="6" max="6" width="17.140625" customWidth="true"/>
@@ -121,46 +165,46 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2">
@@ -171,7 +215,7 @@
         <v>-1.6078251766326122</v>
       </c>
       <c r="C2" s="0">
-        <v>39</v>
+        <v>-0.90421776231974571</v>
       </c>
       <c r="D2" s="0">
         <v>2</v>
@@ -215,7 +259,7 @@
         <v>-1.9257458183580387</v>
       </c>
       <c r="C3" s="0">
-        <v>40</v>
+        <v>-0.83394177042961004</v>
       </c>
       <c r="D3" s="0">
         <v>2</v>
@@ -259,7 +303,7 @@
         <v>2.1848981113277071</v>
       </c>
       <c r="C4" s="0">
-        <v>71</v>
+        <v>1.3446139781645958</v>
       </c>
       <c r="D4" s="0">
         <v>1</v>
@@ -303,7 +347,7 @@
         <v>1.1503096242307316</v>
       </c>
       <c r="C5" s="0">
-        <v>63</v>
+        <v>0.78240604304351047</v>
       </c>
       <c r="D5" s="0">
         <v>2</v>
@@ -347,7 +391,7 @@
         <v>2.6074615418931884</v>
       </c>
       <c r="C6" s="0">
-        <v>70</v>
+        <v>1.2743379862744602</v>
       </c>
       <c r="D6" s="0">
         <v>1</v>
@@ -391,7 +435,7 @@
         <v>-0.049056569781664734</v>
       </c>
       <c r="C7" s="0">
-        <v>81</v>
+        <v>2.0473738970659525</v>
       </c>
       <c r="D7" s="0">
         <v>2</v>
@@ -435,7 +479,7 @@
         <v>2.6518995825990257</v>
       </c>
       <c r="C8" s="0">
-        <v>54</v>
+        <v>0.14992211603228942</v>
       </c>
       <c r="D8" s="0">
         <v>1</v>
@@ -479,7 +523,7 @@
         <v>0.39188302349938037</v>
       </c>
       <c r="C9" s="0">
-        <v>34</v>
+        <v>-1.2555977217704242</v>
       </c>
       <c r="D9" s="0">
         <v>2</v>
@@ -523,7 +567,7 @@
         <v>2.5052535846344974</v>
       </c>
       <c r="C10" s="0">
-        <v>61</v>
+        <v>0.64185405926323913</v>
       </c>
       <c r="D10" s="0">
         <v>1</v>
@@ -567,7 +611,7 @@
         <v>-0.44914941472468384</v>
       </c>
       <c r="C11" s="0">
-        <v>45</v>
+        <v>-0.48256181097893169</v>
       </c>
       <c r="D11" s="0">
         <v>1</v>
@@ -611,7 +655,7 @@
         <v>-1.7143533072438619</v>
       </c>
       <c r="C12" s="0">
-        <v>50</v>
+        <v>-0.13118185152825329</v>
       </c>
       <c r="D12" s="0">
         <v>2</v>
@@ -655,7 +699,7 @@
         <v>-1.373422071014212</v>
       </c>
       <c r="C13" s="0">
-        <v>41</v>
+        <v>-0.76366577853947437</v>
       </c>
       <c r="D13" s="0">
         <v>1</v>
@@ -699,7 +743,7 @@
         <v>1.854195758815766</v>
       </c>
       <c r="C14" s="0">
-        <v>66</v>
+        <v>0.99323401871391748</v>
       </c>
       <c r="D14" s="0">
         <v>2</v>
@@ -743,7 +787,7 @@
         <v>2.3090545781669709</v>
       </c>
       <c r="C15" s="0">
-        <v>55</v>
+        <v>0.22019810792242508</v>
       </c>
       <c r="D15" s="0">
         <v>2</v>
@@ -787,7 +831,7 @@
         <v>-1.2602830105833507</v>
       </c>
       <c r="C16" s="0">
-        <v>59</v>
+        <v>0.50130207548296779</v>
       </c>
       <c r="D16" s="0">
         <v>1</v>
@@ -831,7 +875,7 @@
         <v>1.1536818539490243</v>
       </c>
       <c r="C17" s="0">
-        <v>78</v>
+        <v>1.8365459213955457</v>
       </c>
       <c r="D17" s="0">
         <v>1</v>
@@ -875,7 +919,7 @@
         <v>-1.6942670920887182</v>
       </c>
       <c r="C18" s="0">
-        <v>51</v>
+        <v>-0.060905859638117621</v>
       </c>
       <c r="D18" s="0">
         <v>2</v>
@@ -919,7 +963,7 @@
         <v>2.3833342330398017</v>
       </c>
       <c r="C19" s="0">
-        <v>34</v>
+        <v>-1.2555977217704242</v>
       </c>
       <c r="D19" s="0">
         <v>1</v>
@@ -963,7 +1007,7 @@
         <v>2.2708834258260473</v>
       </c>
       <c r="C20" s="0">
-        <v>64</v>
+        <v>0.85268203493364614</v>
       </c>
       <c r="D20" s="0">
         <v>1</v>
@@ -1007,7 +1051,7 @@
         <v>1.0991996944486582</v>
       </c>
       <c r="C21" s="0">
-        <v>64</v>
+        <v>0.85268203493364614</v>
       </c>
       <c r="D21" s="0">
         <v>1</v>
@@ -1051,7 +1095,7 @@
         <v>-0.78031335771094656</v>
       </c>
       <c r="C22" s="0">
-        <v>29</v>
+        <v>-1.6069776812211025</v>
       </c>
       <c r="D22" s="0">
         <v>2</v>
@@ -1095,7 +1139,7 @@
         <v>-1.722958201711692</v>
       </c>
       <c r="C23" s="0">
-        <v>51</v>
+        <v>-0.060905859638117621</v>
       </c>
       <c r="D23" s="0">
         <v>2</v>
@@ -1139,7 +1183,7 @@
         <v>2.8697196188820495</v>
       </c>
       <c r="C24" s="0">
-        <v>51</v>
+        <v>-0.060905859638117621</v>
       </c>
       <c r="D24" s="0">
         <v>1</v>
@@ -1183,7 +1227,7 @@
         <v>-0.256146676530916</v>
       </c>
       <c r="C25" s="0">
-        <v>65</v>
+        <v>0.92295802682378181</v>
       </c>
       <c r="D25" s="0">
         <v>2</v>
@@ -1227,7 +1271,7 @@
         <v>-0.5172547891229653</v>
       </c>
       <c r="C26" s="0">
-        <v>49</v>
+        <v>-0.20145784341838896</v>
       </c>
       <c r="D26" s="0">
         <v>1</v>
@@ -1271,7 +1315,7 @@
         <v>-2.0237246326562914</v>
       </c>
       <c r="C27" s="0">
-        <v>55</v>
+        <v>0.22019810792242508</v>
       </c>
       <c r="D27" s="0">
         <v>2</v>
@@ -1315,7 +1359,7 @@
         <v>-2.264531930297196</v>
       </c>
       <c r="C28" s="0">
-        <v>28</v>
+        <v>-1.6772536731112382</v>
       </c>
       <c r="D28" s="0">
         <v>2</v>
@@ -1359,7 +1403,7 @@
         <v>0.74561849594529628</v>
       </c>
       <c r="C29" s="0">
-        <v>53</v>
+        <v>0.079646124142153732</v>
       </c>
       <c r="D29" s="0">
         <v>1</v>
@@ -1403,7 +1447,7 @@
         <v>4.4032566849515202</v>
       </c>
       <c r="C30" s="0">
-        <v>57</v>
+        <v>0.36075009170269645</v>
       </c>
       <c r="D30" s="0">
         <v>2</v>
@@ -1447,7 +1491,7 @@
         <v>-0.40788073514756734</v>
       </c>
       <c r="C31" s="0">
-        <v>83</v>
+        <v>2.1879258808462239</v>
       </c>
       <c r="D31" s="0">
         <v>1</v>
@@ -1491,7 +1535,7 @@
         <v>-0.99977215562140254</v>
       </c>
       <c r="C32" s="0">
-        <v>37</v>
+        <v>-1.0447697461000172</v>
       </c>
       <c r="D32" s="0">
         <v>2</v>
@@ -1535,7 +1579,7 @@
         <v>-2.2293558673347462</v>
       </c>
       <c r="C33" s="0">
-        <v>33</v>
+        <v>-1.3258737136605598</v>
       </c>
       <c r="D33" s="0">
         <v>2</v>
@@ -1579,7 +1623,7 @@
         <v>0.49575400603203962</v>
       </c>
       <c r="C34" s="0">
-        <v>63</v>
+        <v>0.78240604304351047</v>
       </c>
       <c r="D34" s="0">
         <v>2</v>
@@ -1623,7 +1667,7 @@
         <v>0.040344330222698011</v>
       </c>
       <c r="C35" s="0">
-        <v>41</v>
+        <v>-0.76366577853947437</v>
       </c>
       <c r="D35" s="0">
         <v>2</v>
@@ -1667,7 +1711,7 @@
         <v>0.15147845567971363</v>
       </c>
       <c r="C36" s="0">
-        <v>61</v>
+        <v>0.64185405926323913</v>
       </c>
       <c r="D36" s="0">
         <v>2</v>
@@ -1711,7 +1755,7 @@
         <v>-2.5021153220084575</v>
       </c>
       <c r="C37" s="0">
-        <v>44</v>
+        <v>-0.55283780286906736</v>
       </c>
       <c r="D37" s="0">
         <v>2</v>
@@ -1755,7 +1799,7 @@
         <v>-0.068545354473050352</v>
       </c>
       <c r="C38" s="0">
-        <v>50</v>
+        <v>-0.13118185152825329</v>
       </c>
       <c r="D38" s="0">
         <v>2</v>
@@ -1799,7 +1843,7 @@
         <v>-0.043574681816281748</v>
       </c>
       <c r="C39" s="0">
-        <v>39</v>
+        <v>-0.90421776231974571</v>
       </c>
       <c r="D39" s="0">
         <v>2</v>
@@ -1843,7 +1887,7 @@
         <v>-2.8731651880836111</v>
       </c>
       <c r="C40" s="0">
-        <v>39</v>
+        <v>-0.90421776231974571</v>
       </c>
       <c r="D40" s="0">
         <v>1</v>
@@ -1887,7 +1931,7 @@
         <v>-0.296827531399252</v>
       </c>
       <c r="C41" s="0">
-        <v>32</v>
+        <v>-1.3961497055506955</v>
       </c>
       <c r="D41" s="0">
         <v>1</v>
@@ -1931,7 +1975,7 @@
         <v>0.21549644423096609</v>
       </c>
       <c r="C42" s="0">
-        <v>56</v>
+        <v>0.29047409981256078</v>
       </c>
       <c r="D42" s="0">
         <v>2</v>
@@ -1975,7 +2019,7 @@
         <v>-1.8064363684459501</v>
       </c>
       <c r="C43" s="0">
-        <v>65</v>
+        <v>0.92295802682378181</v>
       </c>
       <c r="D43" s="0">
         <v>1</v>
@@ -2019,7 +2063,7 @@
         <v>-0.73066943284866026</v>
       </c>
       <c r="C44" s="0">
-        <v>61</v>
+        <v>0.64185405926323913</v>
       </c>
       <c r="D44" s="0">
         <v>2</v>
@@ -2063,7 +2107,7 @@
         <v>-0.19908318622431251</v>
       </c>
       <c r="C45" s="0">
-        <v>31</v>
+        <v>-1.4664256974408312</v>
       </c>
       <c r="D45" s="0">
         <v>2</v>
@@ -2107,7 +2151,7 @@
         <v>-1.6872651765146427</v>
       </c>
       <c r="C46" s="0">
-        <v>41</v>
+        <v>-0.76366577853947437</v>
       </c>
       <c r="D46" s="0">
         <v>1</v>
